--- a/artfynd/A 10723-2023.xlsx
+++ b/artfynd/A 10723-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89567758</v>
+        <v>107929149</v>
       </c>
       <c r="B2" t="n">
-        <v>81236</v>
+        <v>56395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,43 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Snasahögarna, Jmt</t>
+          <t>Oppdalsvallen, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>368484.857163461</v>
+        <v>368471.0011369271</v>
       </c>
       <c r="R2" t="n">
-        <v>7017568.95511037</v>
+        <v>7017903.532331052</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +756,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,12 +766,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Avbarkad gran.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,26 +791,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Albin Enetjärn, Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89567452</v>
+        <v>107928990</v>
       </c>
       <c r="B3" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,37 +819,43 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Snasahögarna, Jmt</t>
+          <t>Oppdalsvallen, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>369012.1632423563</v>
+        <v>368467.3867121469</v>
       </c>
       <c r="R3" t="n">
-        <v>7017848.098242089</v>
+        <v>7017870.325649522</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -866,7 +879,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,12 +889,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Avbarkad gran.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -896,26 +914,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Albin Enetjärn, Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89567460</v>
+        <v>107929082</v>
       </c>
       <c r="B4" t="n">
-        <v>96354</v>
+        <v>77588</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,41 +938,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221952</v>
+        <v>864</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Snasahögarna, Jmt</t>
+          <t>Oppdalsvallen, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>369121.9090737468</v>
+        <v>368468.3250093604</v>
       </c>
       <c r="R4" t="n">
-        <v>7017550.190839273</v>
+        <v>7017893.274856338</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +997,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -992,12 +1007,17 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ymnig förekomst.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1012,26 +1032,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Albin Enetjärn, Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89567751</v>
+        <v>107929331</v>
       </c>
       <c r="B5" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,37 +1060,43 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Snasahögarna, Jmt</t>
+          <t>Oppdalsvallen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>369065.1490959969</v>
+        <v>368604.2119650252</v>
       </c>
       <c r="R5" t="n">
-        <v>7017331.162186393</v>
+        <v>7017894.032147422</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1098,7 +1120,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1108,12 +1130,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Avbarkad gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,26 +1155,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Albin Enetjärn, Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89567766</v>
+        <v>107929174</v>
       </c>
       <c r="B6" t="n">
-        <v>73693</v>
+        <v>77588</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,37 +1183,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6440</v>
+        <v>864</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Snasahögarna, Jmt</t>
+          <t>Oppdalsvallen S, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>368945.8241139695</v>
+        <v>368491.3238309235</v>
       </c>
       <c r="R6" t="n">
-        <v>7017382.903446846</v>
+        <v>7017892.785346957</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1214,7 +1238,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1224,7 +1248,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1244,23 +1268,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Johan Råghall, Albin Enetjärn</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89567792</v>
+        <v>107929162</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1294,19 +1314,20 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Snasahögarna, Jmt</t>
+          <t>Oppdalsvallen, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>369269.0985576868</v>
+        <v>368471.0011369271</v>
       </c>
       <c r="R7" t="n">
-        <v>7017151.108716546</v>
+        <v>7017903.532331052</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1330,7 +1351,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1340,7 +1361,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1360,26 +1381,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Albin Enetjärn, Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89567457</v>
+        <v>89567452</v>
       </c>
       <c r="B8" t="n">
-        <v>78072</v>
+        <v>89410</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1392,21 +1409,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>229821</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1433,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>369431.1939696531</v>
+        <v>369012.1632423563</v>
       </c>
       <c r="R8" t="n">
-        <v>7017363.171310367</v>
+        <v>7017848.098242089</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1492,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>89567440</v>
+        <v>89567453</v>
       </c>
       <c r="B9" t="n">
-        <v>89410</v>
+        <v>73693</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,21 +1525,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1549,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>369309.1976004342</v>
+        <v>369000.8548410241</v>
       </c>
       <c r="R9" t="n">
-        <v>7017415.908194422</v>
+        <v>7017891.828914016</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1608,10 +1625,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89567431</v>
+        <v>89567441</v>
       </c>
       <c r="B10" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1620,25 +1637,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1665,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>369072.8144175367</v>
+        <v>369011.1813057118</v>
       </c>
       <c r="R10" t="n">
-        <v>7017563.90837601</v>
+        <v>7017835.06689981</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,7 +1741,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89567433</v>
+        <v>107929632</v>
       </c>
       <c r="B11" t="n">
         <v>77506</v>
@@ -1758,19 +1775,20 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Snasahögarna, Jmt</t>
+          <t>Oppdalsvallen SÖ, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>369166.7928273273</v>
+        <v>368974.1724255448</v>
       </c>
       <c r="R11" t="n">
-        <v>7017754.813357852</v>
+        <v>7017801.867082651</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1794,7 +1812,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1804,7 +1822,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1824,26 +1842,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Johan Råghall, Albin Enetjärn</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>89567775</v>
+        <v>107929598</v>
       </c>
       <c r="B12" t="n">
-        <v>56395</v>
+        <v>76490</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1856,37 +1870,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>228579</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Snasahögarna, Jmt</t>
+          <t>Oppdalsvallen SÖ, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>368945.9524266618</v>
+        <v>368974.1724255448</v>
       </c>
       <c r="R12" t="n">
-        <v>7017386.053818856</v>
+        <v>7017801.867082651</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1910,7 +1925,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1920,17 +1935,12 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1945,26 +1955,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Johan Råghall, Albin Enetjärn</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>89567446</v>
+        <v>107929715</v>
       </c>
       <c r="B13" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1977,37 +1983,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Snasahögarna, Jmt</t>
+          <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>369207.0073310379</v>
+        <v>368983.0713931847</v>
       </c>
       <c r="R13" t="n">
-        <v>7017755.882691351</v>
+        <v>7017820.886479281</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2031,7 +2038,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2041,7 +2048,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2061,23 +2068,19 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Albin Enetjärn, Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>89567432</v>
+        <v>107929588</v>
       </c>
       <c r="B14" t="n">
         <v>56395</v>
@@ -2111,19 +2114,25 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Snasahögarna, Jmt</t>
+          <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>368806.8951408337</v>
+        <v>368954.4586866212</v>
       </c>
       <c r="R14" t="n">
-        <v>7017618.014495844</v>
+        <v>7017783.28808958</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2147,7 +2156,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2157,7 +2166,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2167,7 +2176,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2182,26 +2191,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Albin Enetjärn, Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>89567453</v>
+        <v>89567758</v>
       </c>
       <c r="B15" t="n">
-        <v>73693</v>
+        <v>81236</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2214,21 +2219,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2238,10 +2243,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>369000.8548410241</v>
+        <v>368484.857163461</v>
       </c>
       <c r="R15" t="n">
-        <v>7017891.828914016</v>
+        <v>7017568.95511037</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2314,10 +2319,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>89567462</v>
+        <v>89567772</v>
       </c>
       <c r="B16" t="n">
-        <v>56540</v>
+        <v>78602</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2326,25 +2331,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>103021</v>
+        <v>6463</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2354,10 +2359,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>369184.9020923725</v>
+        <v>368503.9037055164</v>
       </c>
       <c r="R16" t="n">
-        <v>7017745.062049226</v>
+        <v>7017560.062581494</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2410,6 +2415,11 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Björkhögstubbe</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2430,10 +2440,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>89567795</v>
+        <v>89567741</v>
       </c>
       <c r="B17" t="n">
-        <v>81236</v>
+        <v>89356</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2442,25 +2452,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>5447</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2470,10 +2480,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>369029.8536453465</v>
+        <v>368439.1493151461</v>
       </c>
       <c r="R17" t="n">
-        <v>7016829.91105915</v>
+        <v>7017577.134687535</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2546,10 +2556,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>89567454</v>
+        <v>107928718</v>
       </c>
       <c r="B18" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2562,37 +2572,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Snasahögarna, Jmt</t>
+          <t>Oppdalsvallen, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>369129.8672442111</v>
+        <v>368499.0569723834</v>
       </c>
       <c r="R18" t="n">
-        <v>7017534.991544188</v>
+        <v>7017585.053529237</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2616,7 +2627,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2626,7 +2637,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2646,26 +2657,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Albin Enetjärn, Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>89567438</v>
+        <v>107928595</v>
       </c>
       <c r="B19" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2678,37 +2685,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Snasahögarna, Jmt</t>
+          <t>Oppdalsvallen, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>369002.8183772939</v>
+        <v>368499.0569723834</v>
       </c>
       <c r="R19" t="n">
-        <v>7017563.151281677</v>
+        <v>7017585.053529237</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2732,22 +2740,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2762,26 +2770,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Albin Enetjärn, Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>89567461</v>
+        <v>107927222</v>
       </c>
       <c r="B20" t="n">
-        <v>96354</v>
+        <v>56395</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2790,41 +2794,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Snasahögarna, Jmt</t>
+          <t>Oppdalsbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>369030.9706853617</v>
+        <v>368443.7931941936</v>
       </c>
       <c r="R20" t="n">
-        <v>7017556.145130774</v>
+        <v>7017547.193226356</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2848,7 +2858,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2858,12 +2868,17 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2023-04-08</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Avbarkad gran.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2878,26 +2893,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Albin Enetjärn, Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>89567441</v>
+        <v>89567460</v>
       </c>
       <c r="B21" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2906,25 +2917,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2934,10 +2945,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>369011.1813057118</v>
+        <v>369121.9090737468</v>
       </c>
       <c r="R21" t="n">
-        <v>7017835.06689981</v>
+        <v>7017550.190839273</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3010,10 +3021,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>89567772</v>
+        <v>89567751</v>
       </c>
       <c r="B22" t="n">
-        <v>78602</v>
+        <v>89410</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3022,25 +3033,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6463</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3050,10 +3061,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>368503.9037055164</v>
+        <v>369065.1490959969</v>
       </c>
       <c r="R22" t="n">
-        <v>7017560.062581494</v>
+        <v>7017331.162186393</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3106,11 +3117,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Björkhögstubbe</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3131,10 +3137,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>89567445</v>
+        <v>89567766</v>
       </c>
       <c r="B23" t="n">
-        <v>78570</v>
+        <v>73693</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3147,21 +3153,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3171,10 +3177,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>369239.8839218214</v>
+        <v>368945.8241139695</v>
       </c>
       <c r="R23" t="n">
-        <v>7017754.095545859</v>
+        <v>7017382.903446846</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3227,11 +3233,6 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Björklåga</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3252,10 +3253,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>89567447</v>
+        <v>89567792</v>
       </c>
       <c r="B24" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3268,21 +3269,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3292,10 +3293,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>369072.0413249766</v>
+        <v>369269.0985576868</v>
       </c>
       <c r="R24" t="n">
-        <v>7017567.095245832</v>
+        <v>7017151.108716546</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3368,10 +3369,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>89567455</v>
+        <v>89567457</v>
       </c>
       <c r="B25" t="n">
-        <v>81236</v>
+        <v>78072</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3384,21 +3385,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1312</v>
+        <v>229821</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3408,10 +3409,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>369116.9407115439</v>
+        <v>369431.1939696531</v>
       </c>
       <c r="R25" t="n">
-        <v>7017561.211511472</v>
+        <v>7017363.171310367</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3484,10 +3485,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>89567737</v>
+        <v>89567440</v>
       </c>
       <c r="B26" t="n">
-        <v>89356</v>
+        <v>89410</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3496,25 +3497,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5447</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3524,10 +3525,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>368952.8514980184</v>
+        <v>369309.1976004342</v>
       </c>
       <c r="R26" t="n">
-        <v>7017378.109231457</v>
+        <v>7017415.908194422</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3600,10 +3601,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>89567748</v>
+        <v>89567431</v>
       </c>
       <c r="B27" t="n">
-        <v>89410</v>
+        <v>89356</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3612,25 +3613,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3640,10 +3641,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>368956.1819085664</v>
+        <v>369072.8144175367</v>
       </c>
       <c r="R27" t="n">
-        <v>7017371.211580575</v>
+        <v>7017563.90837601</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3716,10 +3717,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>89567794</v>
+        <v>89567433</v>
       </c>
       <c r="B28" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3732,21 +3733,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3756,10 +3757,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>368990.8943181796</v>
+        <v>369166.7928273273</v>
       </c>
       <c r="R28" t="n">
-        <v>7017358.978824864</v>
+        <v>7017754.813357852</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3812,11 +3813,6 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Färska ringhack i gran</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3837,10 +3833,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>89567741</v>
+        <v>89567775</v>
       </c>
       <c r="B29" t="n">
-        <v>89356</v>
+        <v>56395</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3849,25 +3845,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3877,10 +3873,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>368439.1493151461</v>
+        <v>368945.9524266618</v>
       </c>
       <c r="R29" t="n">
-        <v>7017577.134687535</v>
+        <v>7017386.053818856</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3923,6 +3919,11 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3953,10 +3954,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>89567439</v>
+        <v>89567446</v>
       </c>
       <c r="B30" t="n">
-        <v>89410</v>
+        <v>73693</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3969,21 +3970,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3993,10 +3994,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>368845.0650747413</v>
+        <v>369207.0073310379</v>
       </c>
       <c r="R30" t="n">
-        <v>7017579.945821211</v>
+        <v>7017755.882691351</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4069,10 +4070,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>89567444</v>
+        <v>89567432</v>
       </c>
       <c r="B31" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4085,21 +4086,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4109,10 +4110,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>368995.1757868837</v>
+        <v>368806.8951408337</v>
       </c>
       <c r="R31" t="n">
-        <v>7017563.913229365</v>
+        <v>7017618.014495844</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4155,6 +4156,11 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4185,10 +4191,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>89567448</v>
+        <v>89567462</v>
       </c>
       <c r="B32" t="n">
-        <v>96354</v>
+        <v>56540</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4197,25 +4203,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221952</v>
+        <v>103021</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4225,10 +4231,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>369168.9180010961</v>
+        <v>369184.9020923725</v>
       </c>
       <c r="R32" t="n">
-        <v>7017485.170000658</v>
+        <v>7017745.062049226</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4301,10 +4307,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>89567783</v>
+        <v>89567795</v>
       </c>
       <c r="B33" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4317,21 +4323,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4341,10 +4347,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>368948.9421256157</v>
+        <v>369029.8536453465</v>
       </c>
       <c r="R33" t="n">
-        <v>7017381.87485372</v>
+        <v>7016829.91105915</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4417,10 +4423,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>107929843</v>
+        <v>89567454</v>
       </c>
       <c r="B34" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4433,43 +4439,37 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Myckelbäcken, Jmt</t>
+          <t>Snasahögarna, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>369201.3641227403</v>
+        <v>369129.8672442111</v>
       </c>
       <c r="R34" t="n">
-        <v>7017783.607428506</v>
+        <v>7017534.991544188</v>
       </c>
       <c r="S34" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4503,17 +4503,12 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Avbarkad gran.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4528,22 +4523,26 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
-        </is>
-      </c>
-      <c r="AY34" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>107931511</v>
+        <v>89567438</v>
       </c>
       <c r="B35" t="n">
-        <v>78570</v>
+        <v>77506</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4556,38 +4555,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Myckelbäcken, Jmt</t>
+          <t>Snasahögarna, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>369322.9185223287</v>
+        <v>369002.8183772939</v>
       </c>
       <c r="R35" t="n">
-        <v>7017420.309613964</v>
+        <v>7017563.151281677</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4611,7 +4609,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4621,7 +4619,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4641,22 +4639,26 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
-        </is>
-      </c>
-      <c r="AY35" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>107930631</v>
+        <v>89567461</v>
       </c>
       <c r="B36" t="n">
-        <v>56540</v>
+        <v>96354</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4665,51 +4667,41 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>103021</v>
+        <v>221952</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Myckelbäcken, Jmt</t>
+          <t>Snasahögarna, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>369384.5250429783</v>
+        <v>369030.9706853617</v>
       </c>
       <c r="R36" t="n">
-        <v>7017536.814427076</v>
+        <v>7017556.145130774</v>
       </c>
       <c r="S36" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4733,7 +4725,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4743,7 +4735,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4763,22 +4755,26 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
-        </is>
-      </c>
-      <c r="AY36" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>107926663</v>
+        <v>89567445</v>
       </c>
       <c r="B37" t="n">
-        <v>56395</v>
+        <v>78570</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4791,43 +4787,37 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Snasahögarna V, Jmt</t>
+          <t>Snasahögarna, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>369067.6329521956</v>
+        <v>369239.8839218214</v>
       </c>
       <c r="R37" t="n">
-        <v>7016637.647899015</v>
+        <v>7017754.095545859</v>
       </c>
       <c r="S37" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4851,7 +4841,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4861,7 +4851,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4877,26 +4867,35 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Björklåga</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
-        </is>
-      </c>
-      <c r="AY37" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>107930536</v>
+        <v>89567447</v>
       </c>
       <c r="B38" t="n">
-        <v>77588</v>
+        <v>89410</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4909,38 +4908,37 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>864</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Myckelbäcken, Jmt</t>
+          <t>Snasahögarna, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>369404.121985073</v>
+        <v>369072.0413249766</v>
       </c>
       <c r="R38" t="n">
-        <v>7017541.428207901</v>
+        <v>7017567.095245832</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4964,7 +4962,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4974,7 +4972,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -4994,22 +4992,26 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Johan Råghall, Albin Enetjärn</t>
-        </is>
-      </c>
-      <c r="AY38" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>107929983</v>
+        <v>89567455</v>
       </c>
       <c r="B39" t="n">
-        <v>78570</v>
+        <v>81236</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5022,38 +5024,37 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2081</v>
+        <v>1312</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Myckelbäcken, Jmt</t>
+          <t>Snasahögarna, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>369252.913724056</v>
+        <v>369116.9407115439</v>
       </c>
       <c r="R39" t="n">
-        <v>7017719.30923225</v>
+        <v>7017561.211511472</v>
       </c>
       <c r="S39" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5077,7 +5078,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -5087,7 +5088,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -5107,22 +5108,26 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Johan Råghall, Albin Enetjärn</t>
-        </is>
-      </c>
-      <c r="AY39" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>107934103</v>
+        <v>89567737</v>
       </c>
       <c r="B40" t="n">
-        <v>77588</v>
+        <v>89356</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5131,42 +5136,41 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>864</v>
+        <v>5447</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Myckelbäcken, Jmt</t>
+          <t>Snasahögarna, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>368956.6294816291</v>
+        <v>368952.8514980184</v>
       </c>
       <c r="R40" t="n">
-        <v>7017204.843350253</v>
+        <v>7017378.109231457</v>
       </c>
       <c r="S40" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5190,7 +5194,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5200,7 +5204,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5220,22 +5224,26 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
-        </is>
-      </c>
-      <c r="AY40" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>107929149</v>
+        <v>89567748</v>
       </c>
       <c r="B41" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5248,43 +5256,37 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Oppdalsvallen, Jmt</t>
+          <t>Snasahögarna, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>368471.0011369271</v>
+        <v>368956.1819085664</v>
       </c>
       <c r="R41" t="n">
-        <v>7017903.532331052</v>
+        <v>7017371.211580575</v>
       </c>
       <c r="S41" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5308,7 +5310,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5318,17 +5320,12 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>Avbarkad gran.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5343,19 +5340,23 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
-        </is>
-      </c>
-      <c r="AY41" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>107928990</v>
+        <v>89567794</v>
       </c>
       <c r="B42" t="n">
         <v>56395</v>
@@ -5389,25 +5390,19 @@
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Oppdalsvallen, Jmt</t>
+          <t>Snasahögarna, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>368467.3867121469</v>
+        <v>368990.8943181796</v>
       </c>
       <c r="R42" t="n">
-        <v>7017870.325649522</v>
+        <v>7017358.978824864</v>
       </c>
       <c r="S42" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5431,7 +5426,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5441,7 +5436,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5449,11 +5444,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Avbarkad gran.</t>
-        </is>
-      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
@@ -5462,23 +5452,32 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Färska ringhack i gran</t>
+        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
-        </is>
-      </c>
-      <c r="AY42" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>107929855</v>
+        <v>89567439</v>
       </c>
       <c r="B43" t="n">
         <v>89410</v>
@@ -5512,20 +5511,19 @@
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Myckelbäcken, Jmt</t>
+          <t>Snasahögarna, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>369201.3641227403</v>
+        <v>368845.0650747413</v>
       </c>
       <c r="R43" t="n">
-        <v>7017783.607428506</v>
+        <v>7017579.945821211</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5549,7 +5547,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5559,7 +5557,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -5579,22 +5577,26 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
-        </is>
-      </c>
-      <c r="AY43" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>107932488</v>
+        <v>89567444</v>
       </c>
       <c r="B44" t="n">
-        <v>77590</v>
+        <v>89410</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5607,38 +5609,37 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>283</v>
+        <v>5432</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Myckelbäcken, Jmt</t>
+          <t>Snasahögarna, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>369217.1212063232</v>
+        <v>368995.1757868837</v>
       </c>
       <c r="R44" t="n">
-        <v>7017393.954171305</v>
+        <v>7017563.913229365</v>
       </c>
       <c r="S44" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5662,7 +5663,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5672,7 +5673,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5692,22 +5693,26 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
-        </is>
-      </c>
-      <c r="AY44" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>107929632</v>
+        <v>89567448</v>
       </c>
       <c r="B45" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5716,42 +5721,41 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Oppdalsvallen SÖ, Jmt</t>
+          <t>Snasahögarna, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>368974.1724255448</v>
+        <v>369168.9180010961</v>
       </c>
       <c r="R45" t="n">
-        <v>7017801.867082651</v>
+        <v>7017485.170000658</v>
       </c>
       <c r="S45" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5775,7 +5779,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5785,7 +5789,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -5805,22 +5809,26 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Johan Råghall, Albin Enetjärn</t>
-        </is>
-      </c>
-      <c r="AY45" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>107933310</v>
+        <v>89567783</v>
       </c>
       <c r="B46" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5833,43 +5841,37 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Myckelbäcken, Jmt</t>
+          <t>Snasahögarna, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>369131.536522561</v>
+        <v>368948.9421256157</v>
       </c>
       <c r="R46" t="n">
-        <v>7017465.052549496</v>
+        <v>7017381.87485372</v>
       </c>
       <c r="S46" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5893,7 +5895,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -5903,7 +5905,7 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-04-08</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
@@ -5923,22 +5925,26 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
-        </is>
-      </c>
-      <c r="AY46" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>107932057</v>
+        <v>107929843</v>
       </c>
       <c r="B47" t="n">
-        <v>78570</v>
+        <v>56395</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5951,35 +5957,40 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>369277.5791544355</v>
+        <v>369201.3641227403</v>
       </c>
       <c r="R47" t="n">
-        <v>7017448.747807737</v>
+        <v>7017783.607428506</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6026,7 +6037,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>På björk.</t>
+          <t>Avbarkad gran.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6041,22 +6052,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Johan Råghall, Albin Enetjärn</t>
+          <t>Albin Enetjärn, Johan Råghall</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>107932217</v>
+        <v>107931511</v>
       </c>
       <c r="B48" t="n">
-        <v>73693</v>
+        <v>78570</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6069,21 +6080,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6094,10 +6105,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>369299.4467623886</v>
+        <v>369322.9185223287</v>
       </c>
       <c r="R48" t="n">
-        <v>7017387.002726176</v>
+        <v>7017420.309613964</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6166,10 +6177,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>107929082</v>
+        <v>107930631</v>
       </c>
       <c r="B49" t="n">
-        <v>77588</v>
+        <v>56540</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6182,35 +6193,44 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>864</v>
+        <v>103021</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Oppdalsvallen, Jmt</t>
+          <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>368468.3250093604</v>
+        <v>369384.5250429783</v>
       </c>
       <c r="R49" t="n">
-        <v>7017893.274856338</v>
+        <v>7017536.814427076</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6253,11 +6273,6 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Ymnig förekomst.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6284,10 +6299,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>107930155</v>
+        <v>107926663</v>
       </c>
       <c r="B50" t="n">
-        <v>77588</v>
+        <v>56395</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6300,35 +6315,40 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>864</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Myckelbäcken, Jmt</t>
+          <t>Snasahögarna V, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>369285.2669369324</v>
+        <v>369067.6329521956</v>
       </c>
       <c r="R50" t="n">
-        <v>7017715.740838028</v>
+        <v>7016637.647899015</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6390,17 +6410,17 @@
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Johan Råghall, Albin Enetjärn</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>107931518</v>
+        <v>107930536</v>
       </c>
       <c r="B51" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6413,21 +6433,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6438,10 +6458,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>369322.9185223287</v>
+        <v>369404.121985073</v>
       </c>
       <c r="R51" t="n">
-        <v>7017420.309613964</v>
+        <v>7017541.428207901</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6498,19 +6518,19 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
+          <t>Johan Råghall, Albin Enetjärn</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>107930671</v>
+        <v>107929983</v>
       </c>
       <c r="B52" t="n">
         <v>78570</v>
@@ -6551,10 +6571,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>369402.770258002</v>
+        <v>369252.913724056</v>
       </c>
       <c r="R52" t="n">
-        <v>7017508.125771915</v>
+        <v>7017719.30923225</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6611,22 +6631,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
+          <t>Johan Råghall, Albin Enetjärn</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>107930861</v>
+        <v>107934103</v>
       </c>
       <c r="B53" t="n">
-        <v>78477</v>
+        <v>77588</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6635,43 +6655,39 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>389</v>
+        <v>864</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Läderlappslav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Collema nigrescens</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Huds.) DC.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>369408.8478870493</v>
+        <v>368956.6294816291</v>
       </c>
       <c r="R53" t="n">
-        <v>7017513.288405519</v>
+        <v>7017204.843350253</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6716,11 +6732,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>Ymnig förekomst i aspklon.</t>
-        </is>
-      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
@@ -6738,17 +6749,17 @@
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Johan Råghall, Albin Enetjärn</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>107929331</v>
+        <v>107929855</v>
       </c>
       <c r="B54" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6761,40 +6772,35 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Oppdalsvallen, Jmt</t>
+          <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>368604.2119650252</v>
+        <v>369201.3641227403</v>
       </c>
       <c r="R54" t="n">
-        <v>7017894.032147422</v>
+        <v>7017783.607428506</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6837,11 +6843,6 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Avbarkad gran.</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6868,10 +6869,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>107929598</v>
+        <v>107932488</v>
       </c>
       <c r="B55" t="n">
-        <v>76490</v>
+        <v>77590</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6884,35 +6885,35 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>228579</v>
+        <v>283</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Oppdalsvallen SÖ, Jmt</t>
+          <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>368974.1724255448</v>
+        <v>369217.1212063232</v>
       </c>
       <c r="R55" t="n">
-        <v>7017801.867082651</v>
+        <v>7017393.954171305</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6969,22 +6970,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Johan Råghall, Albin Enetjärn</t>
+          <t>Albin Enetjärn, Johan Råghall</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>107934096</v>
+        <v>107933310</v>
       </c>
       <c r="B56" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6997,35 +6998,40 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>368956.6294816291</v>
+        <v>369131.536522561</v>
       </c>
       <c r="R56" t="n">
-        <v>7017204.843350253</v>
+        <v>7017465.052549496</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7094,10 +7100,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>107930356</v>
+        <v>107932057</v>
       </c>
       <c r="B57" t="n">
-        <v>56395</v>
+        <v>78570</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7110,40 +7116,35 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>369361.171267083</v>
+        <v>369277.5791544355</v>
       </c>
       <c r="R57" t="n">
-        <v>7017617.548423229</v>
+        <v>7017448.747807737</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7186,6 +7187,11 @@
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>På björk.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7212,7 +7218,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>107931475</v>
+        <v>107932217</v>
       </c>
       <c r="B58" t="n">
         <v>73693</v>
@@ -7253,10 +7259,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>369333.7103379557</v>
+        <v>369299.4467623886</v>
       </c>
       <c r="R58" t="n">
-        <v>7017441.509186215</v>
+        <v>7017387.002726176</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7313,22 +7319,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Johan Råghall, Albin Enetjärn</t>
+          <t>Albin Enetjärn, Johan Råghall</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>107929715</v>
+        <v>107930155</v>
       </c>
       <c r="B59" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7341,21 +7347,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7366,10 +7372,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>368983.0713931847</v>
+        <v>369285.2669369324</v>
       </c>
       <c r="R59" t="n">
-        <v>7017820.886479281</v>
+        <v>7017715.740838028</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7426,22 +7432,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
+          <t>Johan Råghall, Albin Enetjärn</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>107933730</v>
+        <v>107931518</v>
       </c>
       <c r="B60" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7454,40 +7460,35 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>369028.8422527594</v>
+        <v>369322.9185223287</v>
       </c>
       <c r="R60" t="n">
-        <v>7017359.688010616</v>
+        <v>7017420.309613964</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7544,22 +7545,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Albin Enetjärn, Johan Råghall</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>107933374</v>
+        <v>107930671</v>
       </c>
       <c r="B61" t="n">
-        <v>89410</v>
+        <v>78570</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7572,21 +7573,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7597,10 +7598,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>369093.8066765376</v>
+        <v>369402.770258002</v>
       </c>
       <c r="R61" t="n">
-        <v>7017436.384526047</v>
+        <v>7017508.125771915</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7657,22 +7658,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Albin Enetjärn, Johan Råghall</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>107929174</v>
+        <v>107930861</v>
       </c>
       <c r="B62" t="n">
-        <v>77588</v>
+        <v>78477</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7681,39 +7682,43 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>864</v>
+        <v>389</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Läderlappslav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Collema nigrescens</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Huds.) DC.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Oppdalsvallen S, Jmt</t>
+          <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>368491.3238309235</v>
+        <v>369408.8478870493</v>
       </c>
       <c r="R62" t="n">
-        <v>7017892.785346957</v>
+        <v>7017513.288405519</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7756,6 +7761,11 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Ymnig förekomst i aspklon.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7782,10 +7792,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>107934217</v>
+        <v>107934096</v>
       </c>
       <c r="B63" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7798,40 +7808,35 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>368904.7459964011</v>
+        <v>368956.6294816291</v>
       </c>
       <c r="R63" t="n">
-        <v>7017128.061301586</v>
+        <v>7017204.843350253</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7900,10 +7905,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>107933828</v>
+        <v>107930356</v>
       </c>
       <c r="B64" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7916,35 +7921,40 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>369044.2937014909</v>
+        <v>369361.171267083</v>
       </c>
       <c r="R64" t="n">
-        <v>7017306.765669475</v>
+        <v>7017617.548423229</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -8006,17 +8016,17 @@
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Johan Råghall, Albin Enetjärn</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>107931482</v>
+        <v>107931475</v>
       </c>
       <c r="B65" t="n">
-        <v>76490</v>
+        <v>73693</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8029,21 +8039,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8126,7 +8136,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>107933559</v>
+        <v>107933730</v>
       </c>
       <c r="B66" t="n">
         <v>56395</v>
@@ -8163,7 +8173,7 @@
       <c r="K66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -8172,10 +8182,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>369062.5725225214</v>
+        <v>369028.8422527594</v>
       </c>
       <c r="R66" t="n">
-        <v>7017389.871234985</v>
+        <v>7017359.688010616</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8244,10 +8254,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>107934358</v>
+        <v>107933374</v>
       </c>
       <c r="B67" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8260,40 +8270,35 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>368842.2394079106</v>
+        <v>369093.8066765376</v>
       </c>
       <c r="R67" t="n">
-        <v>7017023.307471964</v>
+        <v>7017436.384526047</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8336,11 +8341,6 @@
       <c r="AB67" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8367,10 +8367,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>107928718</v>
+        <v>107934217</v>
       </c>
       <c r="B68" t="n">
-        <v>81236</v>
+        <v>56395</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8383,35 +8383,40 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Oppdalsvallen, Jmt</t>
+          <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>368499.0569723834</v>
+        <v>368904.7459964011</v>
       </c>
       <c r="R68" t="n">
-        <v>7017585.053529237</v>
+        <v>7017128.061301586</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8468,22 +8473,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>107929162</v>
+        <v>107933828</v>
       </c>
       <c r="B69" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8496,35 +8501,35 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Oppdalsvallen, Jmt</t>
+          <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>368471.0011369271</v>
+        <v>369044.2937014909</v>
       </c>
       <c r="R69" t="n">
-        <v>7017903.532331052</v>
+        <v>7017306.765669475</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8581,22 +8586,22 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>107929917</v>
+        <v>107931482</v>
       </c>
       <c r="B70" t="n">
-        <v>89410</v>
+        <v>76490</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8609,21 +8614,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5432</v>
+        <v>228579</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8634,10 +8639,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>369238.4838427139</v>
+        <v>369333.7103379557</v>
       </c>
       <c r="R70" t="n">
-        <v>7017764.068815481</v>
+        <v>7017441.509186215</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8706,7 +8711,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>107934086</v>
+        <v>107933559</v>
       </c>
       <c r="B71" t="n">
         <v>56395</v>
@@ -8752,10 +8757,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>368956.6294816291</v>
+        <v>369062.5725225214</v>
       </c>
       <c r="R71" t="n">
-        <v>7017204.843350253</v>
+        <v>7017389.871234985</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8824,7 +8829,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>107930311</v>
+        <v>107934358</v>
       </c>
       <c r="B72" t="n">
         <v>56395</v>
@@ -8870,10 +8875,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>369322.5945975493</v>
+        <v>368842.2394079106</v>
       </c>
       <c r="R72" t="n">
-        <v>7017679.065848501</v>
+        <v>7017023.307471964</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8920,7 +8925,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>Ringhack.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8935,22 +8940,22 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>107926893</v>
+        <v>107929917</v>
       </c>
       <c r="B73" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8963,40 +8968,35 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Snasahögarna V, Jmt</t>
+          <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>368988.0259472959</v>
+        <v>369238.4838427139</v>
       </c>
       <c r="R73" t="n">
-        <v>7016778.40966922</v>
+        <v>7017764.068815481</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -9058,14 +9058,14 @@
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Johan Råghall, Albin Enetjärn</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>107929588</v>
+        <v>107934086</v>
       </c>
       <c r="B74" t="n">
         <v>56395</v>
@@ -9102,7 +9102,7 @@
       <c r="K74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -9111,10 +9111,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>368954.4586866212</v>
+        <v>368956.6294816291</v>
       </c>
       <c r="R74" t="n">
-        <v>7017783.28808958</v>
+        <v>7017204.843350253</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9159,11 +9159,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>Ringhack.</t>
-        </is>
-      </c>
       <c r="AD74" t="b">
         <v>0</v>
       </c>
@@ -9176,22 +9171,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>107932699</v>
+        <v>107930311</v>
       </c>
       <c r="B75" t="n">
-        <v>77588</v>
+        <v>56395</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9204,35 +9199,40 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>864</v>
+        <v>100109</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>369219.1683073569</v>
+        <v>369322.5945975493</v>
       </c>
       <c r="R75" t="n">
-        <v>7017411.001128756</v>
+        <v>7017679.065848501</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9277,6 +9277,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>Ringhack.</t>
+        </is>
+      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
@@ -9289,22 +9294,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Johan Råghall, Albin Enetjärn</t>
+          <t>Albin Enetjärn, Johan Råghall</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>107928595</v>
+        <v>107926893</v>
       </c>
       <c r="B76" t="n">
-        <v>77588</v>
+        <v>56395</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9317,35 +9322,40 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>864</v>
+        <v>100109</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Oppdalsvallen, Jmt</t>
+          <t>Snasahögarna V, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>368499.0569723834</v>
+        <v>368988.0259472959</v>
       </c>
       <c r="R76" t="n">
-        <v>7017585.053529237</v>
+        <v>7016778.40966922</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9377,7 +9387,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9387,7 +9397,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9402,19 +9412,19 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>107930878</v>
+        <v>107932699</v>
       </c>
       <c r="B77" t="n">
         <v>77588</v>
@@ -9455,10 +9465,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>369408.8478870493</v>
+        <v>369219.1683073569</v>
       </c>
       <c r="R77" t="n">
-        <v>7017513.288405519</v>
+        <v>7017411.001128756</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9527,10 +9537,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>107929944</v>
+        <v>107930878</v>
       </c>
       <c r="B78" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9543,21 +9553,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9568,10 +9578,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>369262.7072570403</v>
+        <v>369408.8478870493</v>
       </c>
       <c r="R78" t="n">
-        <v>7017760.379899688</v>
+        <v>7017513.288405519</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9628,22 +9638,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
+          <t>Johan Råghall, Albin Enetjärn</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>107933838</v>
+        <v>107929944</v>
       </c>
       <c r="B79" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9656,40 +9666,35 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>369044.2937014909</v>
+        <v>369262.7072570403</v>
       </c>
       <c r="R79" t="n">
-        <v>7017306.765669475</v>
+        <v>7017760.379899688</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9746,19 +9751,19 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Albin Enetjärn</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Albin Enetjärn, Johan Råghall</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>107927222</v>
+        <v>107933838</v>
       </c>
       <c r="B80" t="n">
         <v>56395</v>
@@ -9795,19 +9800,19 @@
       <c r="K80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Oppdalsbäcken, Jmt</t>
+          <t>Myckelbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>368443.7931941936</v>
+        <v>369044.2937014909</v>
       </c>
       <c r="R80" t="n">
-        <v>7017547.193226356</v>
+        <v>7017306.765669475</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9852,11 +9857,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>Avbarkad gran.</t>
-        </is>
-      </c>
       <c r="AD80" t="b">
         <v>0</v>
       </c>
@@ -9869,12 +9869,12 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Albin Enetjärn</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Albin Enetjärn, Johan Råghall</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
